--- a/Curva_inflação.xlsx
+++ b/Curva_inflação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauro.telles\Desktop\Mesa_app_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4660F9-23F2-403D-8EB6-A3E5336ACAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA6611E-950C-42D0-8638-5026E34C454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0C32CBF2-C44E-4306-8404-A2C69D90C2FE}"/>
   </bookViews>
@@ -135,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68D098C-77B5-4B2C-8026-A829A67DB03E}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +458,13 @@
         <v>252</v>
       </c>
       <c r="B2">
-        <v>5.9587000000000003</v>
+        <v>5.7667999999999999</v>
       </c>
       <c r="C2">
-        <v>10.066800000000001</v>
+        <v>9.9616000000000007</v>
       </c>
       <c r="D2">
-        <v>3.8769999999999998</v>
+        <v>3.9660000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,13 +472,13 @@
         <v>378</v>
       </c>
       <c r="B3">
-        <v>5.4676999999999998</v>
+        <v>5.4382999999999999</v>
       </c>
       <c r="C3">
-        <v>9.7759999999999998</v>
+        <v>9.7971000000000004</v>
       </c>
       <c r="D3">
-        <v>4.0849000000000002</v>
+        <v>4.1338999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,13 +486,13 @@
         <v>504</v>
       </c>
       <c r="B4">
-        <v>5.2606000000000002</v>
+        <v>5.3353999999999999</v>
       </c>
       <c r="C4">
-        <v>9.6864000000000008</v>
+        <v>9.8120999999999992</v>
       </c>
       <c r="D4">
-        <v>4.2046000000000001</v>
+        <v>4.2499000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
         <v>630</v>
       </c>
       <c r="B5">
-        <v>5.1829999999999998</v>
+        <v>5.3231000000000002</v>
       </c>
       <c r="C5">
-        <v>9.7066999999999997</v>
+        <v>9.9080999999999992</v>
       </c>
       <c r="D5">
-        <v>4.3007</v>
+        <v>4.3532000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,27 +514,27 @@
         <v>756</v>
       </c>
       <c r="B6">
-        <v>5.1638999999999999</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="C6">
-        <v>9.7824000000000009</v>
+        <v>10.0334</v>
       </c>
       <c r="D6">
-        <v>4.3917000000000002</v>
+        <v>4.4515000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>882</v>
       </c>
       <c r="B7">
-        <v>5.1706000000000003</v>
+        <v>5.3746999999999998</v>
       </c>
       <c r="C7">
-        <v>9.8818999999999999</v>
+        <v>10.162100000000001</v>
       </c>
       <c r="D7">
-        <v>4.4795999999999996</v>
+        <v>4.5431999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,13 +542,13 @@
         <v>1008</v>
       </c>
       <c r="B8">
-        <v>5.1879999999999997</v>
+        <v>5.4059999999999997</v>
       </c>
       <c r="C8">
-        <v>9.9870000000000001</v>
+        <v>10.2822</v>
       </c>
       <c r="D8">
-        <v>4.5622999999999996</v>
+        <v>4.6261000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,13 +556,13 @@
         <v>1134</v>
       </c>
       <c r="B9">
-        <v>5.2095000000000002</v>
+        <v>5.4349999999999996</v>
       </c>
       <c r="C9">
-        <v>10.088100000000001</v>
+        <v>10.3893</v>
       </c>
       <c r="D9">
-        <v>4.6369999999999996</v>
+        <v>4.6989000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,13 +570,13 @@
         <v>1260</v>
       </c>
       <c r="B10">
-        <v>5.2320000000000002</v>
+        <v>5.4607999999999999</v>
       </c>
       <c r="C10">
-        <v>10.180400000000001</v>
+        <v>10.4824</v>
       </c>
       <c r="D10">
-        <v>4.7023000000000001</v>
+        <v>4.7614999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,13 +584,13 @@
         <v>1386</v>
       </c>
       <c r="B11">
-        <v>5.2539999999999996</v>
+        <v>5.4836999999999998</v>
       </c>
       <c r="C11">
-        <v>10.262</v>
+        <v>10.5626</v>
       </c>
       <c r="D11">
-        <v>4.758</v>
+        <v>4.8148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>1512</v>
       </c>
       <c r="B12">
-        <v>5.2751000000000001</v>
+        <v>5.5039999999999996</v>
       </c>
       <c r="C12">
-        <v>10.3324</v>
+        <v>10.631399999999999</v>
       </c>
       <c r="D12">
-        <v>4.8037999999999998</v>
+        <v>4.8598999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,13 +612,13 @@
         <v>1638</v>
       </c>
       <c r="B13">
-        <v>5.2949999999999999</v>
+        <v>5.5221</v>
       </c>
       <c r="C13">
-        <v>10.392300000000001</v>
+        <v>10.6904</v>
       </c>
       <c r="D13">
-        <v>4.8409000000000004</v>
+        <v>4.8978000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,13 +626,13 @@
         <v>1764</v>
       </c>
       <c r="B14">
-        <v>5.3136999999999999</v>
+        <v>5.5384000000000002</v>
       </c>
       <c r="C14">
-        <v>10.442600000000001</v>
+        <v>10.741300000000001</v>
       </c>
       <c r="D14">
-        <v>4.8700999999999999</v>
+        <v>4.9298000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,13 +640,13 @@
         <v>1890</v>
       </c>
       <c r="B15">
-        <v>5.3311999999999999</v>
+        <v>5.5532000000000004</v>
       </c>
       <c r="C15">
-        <v>10.484299999999999</v>
+        <v>10.785399999999999</v>
       </c>
       <c r="D15">
-        <v>4.8921999999999999</v>
+        <v>4.9569000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,13 +654,13 @@
         <v>2016</v>
       </c>
       <c r="B16">
-        <v>5.3475000000000001</v>
+        <v>5.5667</v>
       </c>
       <c r="C16">
-        <v>10.518599999999999</v>
+        <v>10.8239</v>
       </c>
       <c r="D16">
-        <v>4.9085999999999999</v>
+        <v>4.9798999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>2142</v>
       </c>
       <c r="B17">
-        <v>5.3625999999999996</v>
+        <v>5.5791000000000004</v>
       </c>
       <c r="C17">
-        <v>10.5464</v>
+        <v>10.857699999999999</v>
       </c>
       <c r="D17">
-        <v>4.9199000000000002</v>
+        <v>4.9996</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,13 +682,13 @@
         <v>2268</v>
       </c>
       <c r="B18">
-        <v>5.3768000000000002</v>
+        <v>5.5904999999999996</v>
       </c>
       <c r="C18">
-        <v>10.5687</v>
+        <v>10.887600000000001</v>
       </c>
       <c r="D18">
-        <v>4.9268999999999998</v>
+        <v>5.0166000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,13 @@
         <v>2394</v>
       </c>
       <c r="B19">
-        <v>5.3898999999999999</v>
+        <v>5.6010999999999997</v>
+      </c>
+      <c r="C19">
+        <v>10.914199999999999</v>
+      </c>
+      <c r="D19">
+        <v>5.0312000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,7 +710,13 @@
         <v>2520</v>
       </c>
       <c r="B20">
-        <v>5.4021999999999997</v>
+        <v>5.6109999999999998</v>
+      </c>
+      <c r="C20">
+        <v>10.9381</v>
+      </c>
+      <c r="D20">
+        <v>5.0439999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +724,13 @@
         <v>2646</v>
       </c>
       <c r="B21">
-        <v>5.4135999999999997</v>
+        <v>5.6200999999999999</v>
+      </c>
+      <c r="C21">
+        <v>10.9596</v>
+      </c>
+      <c r="D21">
+        <v>5.0552999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +738,7 @@
         <v>2772</v>
       </c>
       <c r="B22">
-        <v>5.4241999999999999</v>
+        <v>5.6287000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +746,7 @@
         <v>2898</v>
       </c>
       <c r="B23">
-        <v>5.4340999999999999</v>
+        <v>5.6367000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +754,7 @@
         <v>3024</v>
       </c>
       <c r="B24">
-        <v>5.4432999999999998</v>
+        <v>5.6441999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,7 +762,7 @@
         <v>3150</v>
       </c>
       <c r="B25">
-        <v>5.452</v>
+        <v>5.6513</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +770,7 @@
         <v>3276</v>
       </c>
       <c r="B26">
-        <v>5.46</v>
+        <v>5.6578999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +778,7 @@
         <v>3402</v>
       </c>
       <c r="B27">
-        <v>5.4676</v>
+        <v>5.6642000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +786,7 @@
         <v>3528</v>
       </c>
       <c r="B28">
-        <v>5.4745999999999997</v>
+        <v>5.6700999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +794,7 @@
         <v>3654</v>
       </c>
       <c r="B29">
-        <v>5.4813000000000001</v>
+        <v>5.6756000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,7 +802,7 @@
         <v>3780</v>
       </c>
       <c r="B30">
-        <v>5.4874999999999998</v>
+        <v>5.6809000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,7 +810,7 @@
         <v>3906</v>
       </c>
       <c r="B31">
-        <v>5.4934000000000003</v>
+        <v>5.6858000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,7 +818,7 @@
         <v>4032</v>
       </c>
       <c r="B32">
-        <v>5.4988999999999999</v>
+        <v>5.6905000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +826,7 @@
         <v>4158</v>
       </c>
       <c r="B33">
-        <v>5.5041000000000002</v>
+        <v>5.6950000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +834,7 @@
         <v>4284</v>
       </c>
       <c r="B34">
-        <v>5.5090000000000003</v>
+        <v>5.6992000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +842,7 @@
         <v>4410</v>
       </c>
       <c r="B35">
-        <v>5.5136000000000003</v>
+        <v>5.7031999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +850,7 @@
         <v>4536</v>
       </c>
       <c r="B36">
-        <v>5.5179999999999998</v>
+        <v>5.7069999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +858,7 @@
         <v>4662</v>
       </c>
       <c r="B37">
-        <v>5.5221999999999998</v>
+        <v>5.7106000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +866,7 @@
         <v>4788</v>
       </c>
       <c r="B38">
-        <v>5.5260999999999996</v>
+        <v>5.7140000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +874,7 @@
         <v>4914</v>
       </c>
       <c r="B39">
-        <v>5.5298999999999996</v>
+        <v>5.7172999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +882,7 @@
         <v>5040</v>
       </c>
       <c r="B40">
-        <v>5.5335000000000001</v>
+        <v>5.7203999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +890,7 @@
         <v>5166</v>
       </c>
       <c r="B41">
-        <v>5.5369000000000002</v>
+        <v>5.7233999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +898,7 @@
         <v>5292</v>
       </c>
       <c r="B42">
-        <v>5.5400999999999998</v>
+        <v>5.7263000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +906,7 @@
         <v>5418</v>
       </c>
       <c r="B43">
-        <v>5.5431999999999997</v>
+        <v>5.7290000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +914,7 @@
         <v>5544</v>
       </c>
       <c r="B44">
-        <v>5.5461</v>
+        <v>5.7316000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +922,7 @@
         <v>5670</v>
       </c>
       <c r="B45">
-        <v>5.5490000000000004</v>
+        <v>5.7340999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +930,7 @@
         <v>5796</v>
       </c>
       <c r="B46">
-        <v>5.5517000000000003</v>
+        <v>5.7365000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +938,7 @@
         <v>5922</v>
       </c>
       <c r="B47">
-        <v>5.5541999999999998</v>
+        <v>5.7388000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +946,7 @@
         <v>6048</v>
       </c>
       <c r="B48">
-        <v>5.5567000000000002</v>
+        <v>5.7409999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +954,7 @@
         <v>6174</v>
       </c>
       <c r="B49">
-        <v>5.5590999999999999</v>
+        <v>5.7431000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +962,7 @@
         <v>6300</v>
       </c>
       <c r="B50">
-        <v>5.5613999999999999</v>
+        <v>5.7450999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +970,7 @@
         <v>6426</v>
       </c>
       <c r="B51">
-        <v>5.5636000000000001</v>
+        <v>5.7470999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +978,7 @@
         <v>6552</v>
       </c>
       <c r="B52">
-        <v>5.5656999999999996</v>
+        <v>5.7488999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +986,7 @@
         <v>6678</v>
       </c>
       <c r="B53">
-        <v>5.5677000000000003</v>
+        <v>5.7507999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,7 +994,7 @@
         <v>6804</v>
       </c>
       <c r="B54">
-        <v>5.5697000000000001</v>
+        <v>5.7525000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +1002,7 @@
         <v>6930</v>
       </c>
       <c r="B55">
-        <v>5.5716000000000001</v>
+        <v>5.7542</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +1010,7 @@
         <v>7056</v>
       </c>
       <c r="B56">
-        <v>5.5734000000000004</v>
+        <v>5.7557999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1018,7 @@
         <v>7182</v>
       </c>
       <c r="B57">
-        <v>5.5750999999999999</v>
+        <v>5.7573999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1026,7 @@
         <v>7308</v>
       </c>
       <c r="B58">
-        <v>5.5768000000000004</v>
+        <v>5.7588999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1034,7 @@
         <v>7434</v>
       </c>
       <c r="B59">
-        <v>5.5784000000000002</v>
+        <v>5.7603</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1042,7 @@
         <v>7560</v>
       </c>
       <c r="B60">
-        <v>5.58</v>
+        <v>5.7618</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1050,7 @@
         <v>7686</v>
       </c>
       <c r="B61">
-        <v>5.5815999999999999</v>
+        <v>5.7630999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1058,7 @@
         <v>7812</v>
       </c>
       <c r="B62">
-        <v>5.5830000000000002</v>
+        <v>5.7644000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1066,7 @@
         <v>7938</v>
       </c>
       <c r="B63">
-        <v>5.5845000000000002</v>
+        <v>5.7656999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1074,7 @@
         <v>8064</v>
       </c>
       <c r="B64">
-        <v>5.5858999999999996</v>
+        <v>5.7670000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1082,7 @@
         <v>8190</v>
       </c>
       <c r="B65">
-        <v>5.5872000000000002</v>
+        <v>5.7682000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1090,7 @@
         <v>8316</v>
       </c>
       <c r="B66">
-        <v>5.5884999999999998</v>
+        <v>5.7693000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1098,7 @@
         <v>8442</v>
       </c>
       <c r="B67">
-        <v>5.5898000000000003</v>
+        <v>5.7705000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1106,7 @@
         <v>8568</v>
       </c>
       <c r="B68">
-        <v>5.5910000000000002</v>
+        <v>5.7716000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1114,7 @@
         <v>8694</v>
       </c>
       <c r="B69">
-        <v>5.5922000000000001</v>
+        <v>5.7725999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1122,7 @@
         <v>8820</v>
       </c>
       <c r="B70">
-        <v>5.5933000000000002</v>
+        <v>5.7736999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,124 +1130,138 @@
         <v>8946</v>
       </c>
       <c r="B71">
-        <v>5.5945</v>
+        <v>5.7747000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72">
         <v>9072</v>
       </c>
       <c r="B72">
-        <v>5.5956000000000001</v>
+        <v>5.7755999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
+      <c r="A75">
+        <v>21</v>
+      </c>
+      <c r="B75">
+        <v>11.688499999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B76">
-        <v>11.688499999999999</v>
+        <v>11.4504</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B77">
-        <v>11.4504</v>
+        <v>11.235200000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B78">
-        <v>11.235200000000001</v>
+        <v>10.7096</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="B79">
-        <v>10.7096</v>
+        <v>10.066800000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>252</v>
+        <v>504</v>
       </c>
       <c r="B80">
-        <v>10.066800000000001</v>
+        <v>9.6864000000000008</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>504</v>
+        <v>756</v>
       </c>
       <c r="B81">
-        <v>9.6864000000000008</v>
+        <v>9.7824000000000009</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>756</v>
+      <c r="A82" s="2">
+        <v>1008</v>
       </c>
       <c r="B82">
-        <v>9.7824000000000009</v>
+        <v>9.9870000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>1008</v>
+        <v>1260</v>
       </c>
       <c r="B83">
-        <v>9.9870000000000001</v>
+        <v>10.180400000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>1260</v>
-      </c>
-      <c r="B84">
-        <v>10.180400000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
         <v>2520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>100000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45292</v>
+      </c>
+      <c r="D88">
+        <v>7.1199999999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,10 +1272,10 @@
         <v>100000</v>
       </c>
       <c r="C89" s="1">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="D89">
-        <v>7.1199999999999999E-2</v>
+        <v>-3.3799999999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,10 +1286,10 @@
         <v>100000</v>
       </c>
       <c r="C90" s="1">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="D90">
-        <v>-3.3799999999999997E-2</v>
+        <v>-2.6200000000000001E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,10 +1300,10 @@
         <v>100000</v>
       </c>
       <c r="C91" s="1">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="D91">
-        <v>-2.6200000000000001E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,10 +1314,10 @@
         <v>100000</v>
       </c>
       <c r="C92" s="1">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="D92">
-        <v>-3.7000000000000002E-3</v>
+        <v>3.61E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,10 +1328,10 @@
         <v>100000</v>
       </c>
       <c r="C93" s="1">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="D93">
-        <v>3.61E-2</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,10 +1342,10 @@
         <v>100000</v>
       </c>
       <c r="C94" s="1">
-        <v>45748</v>
+        <v>45839</v>
       </c>
       <c r="D94">
-        <v>-2.8999999999999998E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,10 +1356,10 @@
         <v>100000</v>
       </c>
       <c r="C95" s="1">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="D95">
-        <v>-6.4999999999999997E-3</v>
+        <v>-2.3699999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,10 +1370,10 @@
         <v>100000</v>
       </c>
       <c r="C96" s="1">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="D96">
-        <v>-2.3699999999999999E-2</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,10 +1384,10 @@
         <v>100000</v>
       </c>
       <c r="C97" s="1">
-        <v>46023</v>
+        <v>46204</v>
       </c>
       <c r="D97">
-        <v>1.14E-2</v>
+        <v>-1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,24 +1398,24 @@
         <v>100000</v>
       </c>
       <c r="C98" s="1">
-        <v>46204</v>
+        <v>46569</v>
       </c>
       <c r="D98">
-        <v>-1.9099999999999999E-2</v>
+        <v>-2.3E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B99">
-        <v>100000</v>
+        <v>950199</v>
       </c>
       <c r="C99" s="1">
-        <v>46569</v>
+        <v>45658</v>
       </c>
       <c r="D99">
-        <v>-2.3E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,10 +1426,10 @@
         <v>950199</v>
       </c>
       <c r="C100" s="1">
-        <v>45658</v>
+        <v>46388</v>
       </c>
       <c r="D100">
-        <v>1.67E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,10 +1440,10 @@
         <v>950199</v>
       </c>
       <c r="C101" s="1">
-        <v>46388</v>
+        <v>47119</v>
       </c>
       <c r="D101">
-        <v>1.4800000000000001E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,10 +1454,10 @@
         <v>950199</v>
       </c>
       <c r="C102" s="1">
-        <v>47119</v>
+        <v>47849</v>
       </c>
       <c r="D102">
-        <v>9.5999999999999992E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,24 +1468,24 @@
         <v>950199</v>
       </c>
       <c r="C103" s="1">
-        <v>47849</v>
+        <v>48580</v>
       </c>
       <c r="D103">
-        <v>-3.5000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>950199</v>
+        <v>760199</v>
       </c>
       <c r="C104" s="1">
-        <v>48580</v>
+        <v>45519</v>
       </c>
       <c r="D104">
-        <v>4.0000000000000002E-4</v>
+        <v>-0.1013</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,10 +1496,10 @@
         <v>760199</v>
       </c>
       <c r="C105" s="1">
-        <v>45519</v>
+        <v>45792</v>
       </c>
       <c r="D105">
-        <v>-0.1013</v>
+        <v>7.0199999999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,10 +1510,10 @@
         <v>760199</v>
       </c>
       <c r="C106" s="1">
-        <v>45792</v>
+        <v>46249</v>
       </c>
       <c r="D106">
-        <v>7.0199999999999999E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,10 +1524,10 @@
         <v>760199</v>
       </c>
       <c r="C107" s="1">
-        <v>46249</v>
+        <v>46522</v>
       </c>
       <c r="D107">
-        <v>3.4700000000000002E-2</v>
+        <v>-7.1199999999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,10 +1538,10 @@
         <v>760199</v>
       </c>
       <c r="C108" s="1">
-        <v>46522</v>
+        <v>46980</v>
       </c>
       <c r="D108">
-        <v>-7.1199999999999999E-2</v>
+        <v>-1.18E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,10 +1552,10 @@
         <v>760199</v>
       </c>
       <c r="C109" s="1">
-        <v>46980</v>
+        <v>47710</v>
       </c>
       <c r="D109">
-        <v>-1.18E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1534,10 +1566,10 @@
         <v>760199</v>
       </c>
       <c r="C110" s="1">
-        <v>47710</v>
+        <v>48441</v>
       </c>
       <c r="D110">
-        <v>4.3999999999999997E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1548,10 +1580,10 @@
         <v>760199</v>
       </c>
       <c r="C111" s="1">
-        <v>48441</v>
+        <v>48714</v>
       </c>
       <c r="D111">
-        <v>7.4999999999999997E-3</v>
+        <v>-2.3900000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,10 +1594,10 @@
         <v>760199</v>
       </c>
       <c r="C112" s="1">
-        <v>48714</v>
+        <v>49444</v>
       </c>
       <c r="D112">
-        <v>-2.3900000000000001E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,10 +1608,10 @@
         <v>760199</v>
       </c>
       <c r="C113" s="1">
-        <v>49444</v>
+        <v>51363</v>
       </c>
       <c r="D113">
-        <v>1.6400000000000001E-2</v>
+        <v>-1.32E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,10 +1622,10 @@
         <v>760199</v>
       </c>
       <c r="C114" s="1">
-        <v>51363</v>
+        <v>53097</v>
       </c>
       <c r="D114">
-        <v>-1.32E-2</v>
+        <v>-8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,10 +1636,10 @@
         <v>760199</v>
       </c>
       <c r="C115" s="1">
-        <v>53097</v>
+        <v>55015</v>
       </c>
       <c r="D115">
-        <v>-8.0999999999999996E-3</v>
+        <v>-8.6E-3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,10 +1650,10 @@
         <v>760199</v>
       </c>
       <c r="C116" s="1">
-        <v>55015</v>
+        <v>56749</v>
       </c>
       <c r="D116">
-        <v>-8.6E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,23 +1664,9 @@
         <v>760199</v>
       </c>
       <c r="C117" s="1">
-        <v>56749</v>
+        <v>58668</v>
       </c>
       <c r="D117">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118">
-        <v>760199</v>
-      </c>
-      <c r="C118" s="1">
-        <v>58668</v>
-      </c>
-      <c r="D118">
         <v>5.3E-3</v>
       </c>
     </row>
